--- a/differences.xlsx
+++ b/differences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnb\Documents\LHCb\ddecay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DB6ABE-9781-4AFD-B9B3-7A9B18ACF6F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA2049B-0CAA-4A8B-9780-D6819E84CD1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{87EEAC3C-FA2D-401C-8E53-C708F608E3E5}"/>
   </bookViews>
@@ -194,15 +194,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1067,7 +1067,1216 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mass </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>D+</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>differences from average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$17:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>(0-49)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(49-64)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(64-81)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(81-110)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(110+)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.8328600000058941E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.011560000026293E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9876000001204375E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.5805399999826477E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.462639999993371E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1206-46BB-9F7A-22923E2600B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>differences from weighted average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>(0-49)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(49-64)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(64-81)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(81-110)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(110+)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.518299919571291E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9699991959168983E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.1158000804225594E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.8951000804172509E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.11777200080427974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1206-46BB-9F7A-22923E2600B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>differences from total fit vals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>(0-49)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(49-64)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(64-81)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(81-110)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(110+)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.4637999999831663E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4250000000356522E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.170300000010684E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.9496000000053755E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.11831700000016099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1206-46BB-9F7A-22923E2600B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1856862431"/>
+        <c:axId val="1921310463"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1856862431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1921310463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1921310463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1856862431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mass Ds</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>differences from average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$17:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>(0-49)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(49-64)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(64-81)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(81-110)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(110+)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.4601000000238855E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9358000000220272E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1580000000940345E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.1143999999794687E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.097299999984898E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E62-4ACF-BC6F-DA11582FE93A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>differences from weighted average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>(0-49)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(49-64)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(64-81)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(81-110)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(110+)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.1363287914446119E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1202879144275357E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.5079712085698702E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.4381712085587424E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.12421071208564172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1E62-4ACF-BC6F-DA11582FE93A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>differences from total fit vals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>(0-49)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(49-64)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(64-81)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(81-110)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(110+)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.5553000000136308E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0310000000117725E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0890000000008513E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.0191999999897234E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.12002099999995153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1E62-4ACF-BC6F-DA11582FE93A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1924987183"/>
+        <c:axId val="1924988431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1924987183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1924988431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1924988431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1924987183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1623,6 +2832,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1656,6 +3897,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>108550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>557705</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>132364</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB83AD7C-4670-45B2-929C-6ECB2CE567F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>794023</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>499241</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95908</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480088F7-C37C-4677-B644-82FD40FFEF39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1963,8 +4276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182C59F2-1F12-4618-8D99-D72DBF5594F3}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,16 +4325,16 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1869.9151139999999</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1968.8168840000001</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>98.900898999999995</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>1534782</v>
       </c>
       <c r="G2">
@@ -2045,16 +4358,16 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1869.8569010000001</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1968.7616410000001</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>98.904615000000007</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>1408901</v>
       </c>
       <c r="G3">
@@ -2078,16 +4391,16 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1869.818773</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1968.7304409999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>98.911882000000006</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>947237</v>
       </c>
       <c r="G4">
@@ -2111,16 +4424,16 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1869.76098</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1968.671139</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>98.910933999999997</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>603742</v>
       </c>
       <c r="G5">
@@ -2144,16 +4457,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1869.7321589999999</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1968.63131</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>98.913696000000002</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>226236</v>
       </c>
       <c r="G6">
@@ -2174,7 +4487,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f>SUM(F2:F6)</f>
         <v>4720898</v>
       </c>
@@ -2183,15 +4496,15 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <f>AVERAGE(B2:B6)</f>
         <v>1869.8167853999998</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <f>AVERAGE(C2:C6)</f>
         <v>1968.7222829999998</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f>AVERAGE(D2:D6)</f>
         <v>98.908405200000004</v>
       </c>
@@ -2200,15 +4513,15 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <f>SUM(I2:I6)</f>
         <v>1869.8499310008042</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <f>SUM(J2:J6)</f>
         <v>1968.7555207120856</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f>SUM(K2:K6)</f>
         <v>98.906108321012454</v>
       </c>
@@ -2217,23 +4530,23 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>1869.8504760000001</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1968.7513309999999</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>98.900855000000007</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2254,15 +4567,15 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <f>B2-B$9</f>
+        <f t="shared" ref="B17:D21" si="4">B2-B$9</f>
         <v>9.8328600000058941E-2</v>
       </c>
       <c r="C17">
-        <f>C2-C$9</f>
+        <f t="shared" si="4"/>
         <v>9.4601000000238855E-2</v>
       </c>
-      <c r="D17" s="3">
-        <f>D2-D$9</f>
+      <c r="D17" s="2">
+        <f t="shared" si="4"/>
         <v>-7.5062000000087892E-3</v>
       </c>
     </row>
@@ -2271,15 +4584,15 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <f>B3-B$9</f>
+        <f t="shared" si="4"/>
         <v>4.011560000026293E-2</v>
       </c>
       <c r="C18">
-        <f>C3-C$9</f>
+        <f t="shared" si="4"/>
         <v>3.9358000000220272E-2</v>
       </c>
-      <c r="D18" s="4">
-        <f>D3-D$9</f>
+      <c r="D18" s="3">
+        <f t="shared" si="4"/>
         <v>-3.7901999999974123E-3</v>
       </c>
     </row>
@@ -2288,15 +4601,15 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <f>B4-B$9</f>
+        <f t="shared" si="4"/>
         <v>1.9876000001204375E-3</v>
       </c>
       <c r="C19">
-        <f>C4-C$9</f>
+        <f t="shared" si="4"/>
         <v>8.1580000000940345E-3</v>
       </c>
-      <c r="D19" s="4">
-        <f>D4-D$9</f>
+      <c r="D19" s="3">
+        <f t="shared" si="4"/>
         <v>3.4768000000013899E-3</v>
       </c>
     </row>
@@ -2305,15 +4618,15 @@
         <v>6</v>
       </c>
       <c r="B20">
-        <f>B5-B$9</f>
+        <f t="shared" si="4"/>
         <v>-5.5805399999826477E-2</v>
       </c>
       <c r="C20">
-        <f>C5-C$9</f>
+        <f t="shared" si="4"/>
         <v>-5.1143999999794687E-2</v>
       </c>
-      <c r="D20" s="4">
-        <f>D5-D$9</f>
+      <c r="D20" s="3">
+        <f t="shared" si="4"/>
         <v>2.5287999999932254E-3</v>
       </c>
     </row>
@@ -2322,25 +4635,25 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <f>B6-B$9</f>
+        <f t="shared" si="4"/>
         <v>-8.462639999993371E-2</v>
       </c>
       <c r="C21">
-        <f>C6-C$9</f>
+        <f t="shared" si="4"/>
         <v>-9.097299999984898E-2</v>
       </c>
-      <c r="D21" s="5">
-        <f>D6-D$9</f>
+      <c r="D21" s="4">
+        <f t="shared" si="4"/>
         <v>5.2907999999973754E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -2361,15 +4674,15 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <f>B2-B$10</f>
+        <f t="shared" ref="B27:D31" si="5">B2-B$10</f>
         <v>6.518299919571291E-2</v>
       </c>
       <c r="C27">
-        <f>C2-C$10</f>
+        <f t="shared" si="5"/>
         <v>6.1363287914446119E-2</v>
       </c>
-      <c r="D27" s="3">
-        <f>D2-D$10</f>
+      <c r="D27" s="2">
+        <f t="shared" si="5"/>
         <v>-5.2093210124581901E-3</v>
       </c>
     </row>
@@ -2378,15 +4691,15 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <f>B3-B$10</f>
+        <f t="shared" si="5"/>
         <v>6.9699991959168983E-3</v>
       </c>
       <c r="C28">
-        <f>C3-C$10</f>
+        <f t="shared" si="5"/>
         <v>6.1202879144275357E-3</v>
       </c>
-      <c r="D28" s="4">
-        <f>D3-D$10</f>
+      <c r="D28" s="3">
+        <f t="shared" si="5"/>
         <v>-1.4933210124468133E-3</v>
       </c>
     </row>
@@ -2395,15 +4708,15 @@
         <v>5</v>
       </c>
       <c r="B29">
-        <f>B4-B$10</f>
+        <f t="shared" si="5"/>
         <v>-3.1158000804225594E-2</v>
       </c>
       <c r="C29">
-        <f>C4-C$10</f>
+        <f t="shared" si="5"/>
         <v>-2.5079712085698702E-2</v>
       </c>
-      <c r="D29" s="4">
-        <f>D4-D$10</f>
+      <c r="D29" s="3">
+        <f t="shared" si="5"/>
         <v>5.7736789875519889E-3</v>
       </c>
     </row>
@@ -2412,15 +4725,15 @@
         <v>6</v>
       </c>
       <c r="B30">
-        <f>B5-B$10</f>
+        <f t="shared" si="5"/>
         <v>-8.8951000804172509E-2</v>
       </c>
       <c r="C30">
-        <f>C5-C$10</f>
+        <f t="shared" si="5"/>
         <v>-8.4381712085587424E-2</v>
       </c>
-      <c r="D30" s="4">
-        <f>D5-D$10</f>
+      <c r="D30" s="3">
+        <f t="shared" si="5"/>
         <v>4.8256789875438244E-3</v>
       </c>
     </row>
@@ -2429,25 +4742,25 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <f>B6-B$10</f>
+        <f t="shared" si="5"/>
         <v>-0.11777200080427974</v>
       </c>
       <c r="C31">
-        <f>C6-C$10</f>
+        <f t="shared" si="5"/>
         <v>-0.12421071208564172</v>
       </c>
-      <c r="D31" s="5">
-        <f>D6-D$10</f>
+      <c r="D31" s="4">
+        <f t="shared" si="5"/>
         <v>7.5876789875479744E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -2468,15 +4781,15 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <f>B2-B$11</f>
+        <f t="shared" ref="B37:D41" si="6">B2-B$11</f>
         <v>6.4637999999831663E-2</v>
       </c>
       <c r="C37">
-        <f>C2-C$11</f>
+        <f t="shared" si="6"/>
         <v>6.5553000000136308E-2</v>
       </c>
-      <c r="D37" s="3">
-        <f>D2-D$11</f>
+      <c r="D37" s="2">
+        <f t="shared" si="6"/>
         <v>4.3999999988386662E-5</v>
       </c>
     </row>
@@ -2485,15 +4798,15 @@
         <v>4</v>
       </c>
       <c r="B38">
-        <f>B3-B$11</f>
+        <f t="shared" si="6"/>
         <v>6.4250000000356522E-3</v>
       </c>
       <c r="C38">
-        <f>C3-C$11</f>
+        <f t="shared" si="6"/>
         <v>1.0310000000117725E-2</v>
       </c>
-      <c r="D38" s="4">
-        <f>D3-D$11</f>
+      <c r="D38" s="3">
+        <f t="shared" si="6"/>
         <v>3.7599999999997635E-3</v>
       </c>
     </row>
@@ -2502,15 +4815,15 @@
         <v>5</v>
       </c>
       <c r="B39">
-        <f>B4-B$11</f>
+        <f t="shared" si="6"/>
         <v>-3.170300000010684E-2</v>
       </c>
       <c r="C39">
-        <f>C4-C$11</f>
+        <f t="shared" si="6"/>
         <v>-2.0890000000008513E-2</v>
       </c>
-      <c r="D39" s="4">
-        <f>D4-D$11</f>
+      <c r="D39" s="3">
+        <f t="shared" si="6"/>
         <v>1.1026999999998566E-2</v>
       </c>
     </row>
@@ -2519,15 +4832,15 @@
         <v>6</v>
       </c>
       <c r="B40">
-        <f>B5-B$11</f>
+        <f t="shared" si="6"/>
         <v>-8.9496000000053755E-2</v>
       </c>
       <c r="C40">
-        <f>C5-C$11</f>
+        <f t="shared" si="6"/>
         <v>-8.0191999999897234E-2</v>
       </c>
-      <c r="D40" s="4">
-        <f>D5-D$11</f>
+      <c r="D40" s="3">
+        <f t="shared" si="6"/>
         <v>1.0078999999990401E-2</v>
       </c>
     </row>
@@ -2536,15 +4849,15 @@
         <v>8</v>
       </c>
       <c r="B41">
-        <f>B6-B$11</f>
+        <f t="shared" si="6"/>
         <v>-0.11831700000016099</v>
       </c>
       <c r="C41">
-        <f>C6-C$11</f>
+        <f t="shared" si="6"/>
         <v>-0.12002099999995153</v>
       </c>
-      <c r="D41" s="5">
-        <f>D6-D$11</f>
+      <c r="D41" s="4">
+        <f t="shared" si="6"/>
         <v>1.2840999999994551E-2</v>
       </c>
     </row>

--- a/differences.xlsx
+++ b/differences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnb\Documents\LHCb\ddecay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BDB8AD-CB2D-4A87-91A3-4618D59F3575}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B5DCC9-9EE8-4721-8C86-B9E97A293261}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{87EEAC3C-FA2D-401C-8E53-C708F608E3E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87EEAC3C-FA2D-401C-8E53-C708F608E3E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Both particles" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="25">
   <si>
     <t>D+ fit</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>deltam err</t>
+  </si>
+  <si>
+    <t>no ms</t>
   </si>
 </sst>
 </file>
@@ -12370,15 +12373,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
+      <xdr:colOff>495299</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12783,8 +12786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182C59F2-1F12-4618-8D99-D72DBF5594F3}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView topLeftCell="E4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12805,6 +12808,9 @@
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -13397,8 +13403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF40BA1D-D7E6-4ACC-9C4D-BE81023AC755}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13419,6 +13425,9 @@
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -14029,8 +14038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71B1E5D-A5B5-4E4B-A869-61FD314E3EC3}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14051,6 +14060,9 @@
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
